--- a/cleaned_with_xy.xlsx
+++ b/cleaned_with_xy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/eyes4darkness/EYES-4-DARKNESS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55BA26-86C5-5A4B-9958-7DFA0C56AC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB303BF-6A01-6D46-B7AB-38119218CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="2080" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="2500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - cleaned_with_xy" sheetId="1" r:id="rId1"/>
@@ -1636,8 +1636,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
